--- a/file/common/Province.xlsx
+++ b/file/common/Province.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\github\order\country_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\file\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="province" sheetId="1" r:id="rId1"/>
@@ -335,18 +335,18 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>BeiJing</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Anhui</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beijing</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -454,8 +454,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>85</v>
@@ -1033,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>66</v>
@@ -1433,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1446,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/file/common/Province.xlsx
+++ b/file/common/Province.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="province" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>北京市</t>
   </si>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -454,8 +454,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1309,20 +1309,20 @@
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
+      <c r="B26" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E26">
-        <v>35.639600000000002</v>
+        <v>31.68</v>
       </c>
       <c r="F26">
-        <v>109.5996</v>
+        <v>88.76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1330,19 +1330,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27">
-        <v>40.165999999999997</v>
+        <v>35.639600000000002</v>
       </c>
       <c r="F27">
-        <v>95.712900000000005</v>
+        <v>109.5996</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1350,19 +1350,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28">
-        <v>35.419899999999998</v>
+        <v>40.165999999999997</v>
       </c>
       <c r="F28">
-        <v>96.240200000000002</v>
+        <v>95.712900000000005</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1370,19 +1370,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29">
-        <v>37.309600000000003</v>
+        <v>35.419899999999998</v>
       </c>
       <c r="F29">
-        <v>105.9961</v>
+        <v>96.240200000000002</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1390,39 +1390,39 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30">
-        <v>41.747999999999998</v>
+        <v>37.309600000000003</v>
       </c>
       <c r="F30">
-        <v>84.902299999999997</v>
+        <v>105.9961</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>88</v>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E31">
-        <v>31.68</v>
+        <v>41.747999999999998</v>
       </c>
       <c r="F31">
-        <v>88.76</v>
+        <v>84.902299999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1446,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
